--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.042221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.042221.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1349,12 +1349,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1387,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1691,12 +1691,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2451,12 +2451,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2489,12 +2489,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2793,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4431,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5001,12 +5001,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5685,12 +5685,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5879,12 +5879,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6031,12 +6031,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6069,12 +6069,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6259,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6525,12 +6525,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6905,12 +6905,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6981,12 +6981,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7019,12 +7019,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7397,12 +7397,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7587,12 +7587,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7625,12 +7625,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7663,12 +7663,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8005,12 +8005,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8081,12 +8081,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8461,12 +8461,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8727,12 +8727,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8993,12 +8993,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9487,12 +9487,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9981,12 +9981,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10095,12 +10095,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10855,12 +10855,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -11385,12 +11385,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12033,12 +12033,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12451,12 +12451,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12489,12 +12489,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12797,12 +12797,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12835,12 +12835,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12915,12 +12915,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13109,12 +13109,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13147,12 +13147,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13299,12 +13299,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13337,12 +13337,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13561,12 +13561,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13599,12 +13599,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13713,12 +13713,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13979,12 +13979,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14017,12 +14017,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14359,12 +14359,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14739,12 +14739,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14853,12 +14853,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14933,12 +14933,12 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15883,12 +15883,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16073,12 +16073,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16833,12 +16833,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16945,12 +16945,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17443,12 +17443,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17861,12 +17861,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
